--- a/migforecasting/underground/tests on superdataset/test-9.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-42.csv)</t>
+  </si>
+  <si>
+    <t>Ср. значение</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t>Кол-во нулей</t>
+  </si>
+  <si>
+    <t>Анализ признаков в датасете (размер выборки 800 примеров)</t>
+  </si>
+  <si>
+    <t>Большие</t>
+  </si>
+  <si>
+    <t>Малые</t>
   </si>
 </sst>
 </file>
@@ -423,7 +444,906 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Big cities</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$S$4:$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>museums</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parks</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>theatres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>library</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cultureorg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>musartschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15638286585205799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37791513590127479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6627874099945638E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6898318611344039E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1274211097439872E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8096190695724136E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4230410279793911E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5646770961364273E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2928222501055463E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B07D-49FF-8596-428761FF3AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Small cities</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$S$4:$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>museums</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parks</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>theatres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>library</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cultureorg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>musartschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$U$4:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28022091714152342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12950551814581521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14576179328590291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8414872852975152E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0340918423375841E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1479099753243752E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1047374472270618E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2103540134445211E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23112596579044811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B07D-49FF-8596-428761FF3AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="385556623"/>
+        <c:axId val="385549967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385556623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385549967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385549967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385556623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bis cities</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$S$4:$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>museums</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parks</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>theatres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>library</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cultureorg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>musartschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15638286585205799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37791513590127479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6627874099945638E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6898318611344039E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1274211097439872E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8096190695724136E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4230410279793911E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5646770961364273E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2928222501055463E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EC3-49CB-95DF-91B54198E3D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Small cities</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$S$4:$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>museums</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parks</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>theatres</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>library</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cultureorg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>musartschool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$U$4:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28022091714152342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12950551814581521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14576179328590291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8414872852975152E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0340918423375841E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1479099753243752E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1047374472270618E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2103540134445211E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23112596579044811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EC3-49CB-95DF-91B54198E3D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389112591"/>
+        <c:axId val="389111759"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="389112591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389111759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389111759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389112591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -982,6 +1902,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -992,8 +2956,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1009,6 +2973,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1280,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I57"/>
+  <dimension ref="C2:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,9 +3316,19 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="19" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,8 +3339,32 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -1320,8 +3378,33 @@
       <c r="I4" s="3">
         <v>0.15638286585205799</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>13174.4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>63293</v>
+      </c>
+      <c r="N4" s="4">
+        <v>150</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="S4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.15638286585205799</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.28022091714152342</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -1337,8 +3420,33 @@
       <c r="I5" s="3">
         <v>0.37791513590127479</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4">
+        <v>521.4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2149</v>
+      </c>
+      <c r="N5" s="4">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.37791513590127479</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.12950551814581521</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -1355,8 +3463,33 @@
       <c r="I6" s="3">
         <v>9.6627874099945638E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4">
+        <v>946.5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6260</v>
+      </c>
+      <c r="N6" s="4">
+        <v>54</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9.6627874099945638E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.14576179328590291</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -1373,8 +3506,33 @@
       <c r="I7" s="3">
         <v>4.6898318611344039E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="M7" s="4">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="3">
+        <v>4.6898318611344039E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <v>3.8414872852975152E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1391,8 +3549,33 @@
       <c r="I8" s="3">
         <v>3.1274211097439872E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.83</v>
+      </c>
+      <c r="M8" s="4">
+        <v>130</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3.1274211097439872E-2</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.0340918423375841E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1409,8 +3592,33 @@
       <c r="I9" s="3">
         <v>8.8096190695724136E-2</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="M9" s="4">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="3">
+        <v>8.8096190695724136E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <v>5.1479099753243752E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1427,8 +3635,33 @@
       <c r="I10" s="3">
         <v>9.4230410279793911E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="M10" s="4">
+        <v>109</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3">
+        <v>9.4230410279793911E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5.1047374472270618E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1445,8 +3678,33 @@
       <c r="I11" s="3">
         <v>6.5646770961364273E-2</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>75</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="3">
+        <v>6.5646770961364273E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>6.2103540134445211E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1463,8 +3721,33 @@
       <c r="I12" s="3">
         <v>4.2928222501055463E-2</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M12" s="4">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="3">
+        <v>4.2928222501055463E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.23112596579044811</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1475,8 +3758,13 @@
       <c r="E13" s="3">
         <v>1414.926709677419</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1488,7 +3776,7 @@
         <v>1639.6098064516129</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1500,7 +3788,7 @@
         <v>1606.200322580645</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
